--- a/biology/Botanique/Dorstenia_angusticornis/Dorstenia_angusticornis.xlsx
+++ b/biology/Botanique/Dorstenia_angusticornis/Dorstenia_angusticornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dorstenia angusticornis Engl. [2] est une espèce de plantes à fleurs de la famille des Moraceae et du genre Dorstenia, endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorstenia angusticornis Engl.  est une espèce de plantes à fleurs de la famille des Moraceae et du genre Dorstenia, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbrisseau atteint une hauteur de 0,5 à 1,5 mètre. Il est caractérisé par les branches issues de ses tiges : la partie inférieure des branches est glabre tandis que la partie supérieure feuillue, épaisse de 1 à 3 mm, recouverte de petits poils courbés. 
 Ses entre-nœuds font 2 à 4 cm de long. Enfin, le réceptacle floral à deux bras est reconnaissable par sa position dans un appendice linéaire.
-Il se développe dans les forêts primaires et secondaires[3]. 
+Il se développe dans les forêts primaires et secondaires. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est assez rare, endémique du Cameroun où elle a été observée dans quatre régions (Sud-Ouest, Littoral, Centre et Sud[4]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est assez rare, endémique du Cameroun où elle a été observée dans quatre régions (Sud-Ouest, Littoral, Centre et Sud).
 </t>
         </is>
       </c>
